--- a/hybrid_searchTesting/timings_60_question_RRF.xlsx
+++ b/hybrid_searchTesting/timings_60_question_RRF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\hybrid_searchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32079BAB-35BD-43B1-9CF0-656FD8515A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761D5353-8A3C-4FD3-A92F-11C377D8942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,163 +102,163 @@
     <t>Az új média kuatócsoport melyik szakhoz kapcsolodik?</t>
   </si>
   <si>
+    <t>Melyik linken talalálom a acfa kutatási tervét?</t>
+  </si>
+  <si>
+    <t>Sorold fel a matinfo docenseit!</t>
+  </si>
+  <si>
+    <t>Add meg a tantárgyi leirások linkjét!</t>
+  </si>
+  <si>
+    <t>Add meg a mechatronika 2025-ös I. éves tantervét!</t>
+  </si>
+  <si>
+    <t>Hol találom a növényorvos szak II.éves tantervét?</t>
+  </si>
+  <si>
+    <t>Hol érhetem el a távközlés tantárgyi adatlapját!</t>
+  </si>
+  <si>
+    <t>Add meg az órarendet!</t>
+  </si>
+  <si>
+    <t>Hogy hivják a jezsuita szerzetest?</t>
+  </si>
+  <si>
+    <t>Hogy hivják a családorvosokat?</t>
+  </si>
+  <si>
+    <t>Mi a telefonszáma dr. Finna Juditnak?</t>
+  </si>
+  <si>
+    <t>Mi az orvosi rendelő időpontjai?</t>
+  </si>
+  <si>
+    <t>Az oklevél átvételéhez mi szükséges?</t>
+  </si>
+  <si>
+    <t>Miből áll a portfólió nyilvános védése?</t>
+  </si>
+  <si>
+    <t>Miből áll a tanárképzés záróvizsga menete?</t>
+  </si>
+  <si>
+    <t>Hol találom a számítástechnika szak záróvizsga útmutatóját?</t>
+  </si>
+  <si>
+    <t>Hol talalálom a matematika-informatika tanszék útmutatójaát?</t>
+  </si>
+  <si>
+    <t>Hol találom a tájépitészeti szak tervlapját?</t>
+  </si>
+  <si>
+    <t>Melyik linken találom az alkalmazott nyelvészeti tanszék útmutatóját?</t>
+  </si>
+  <si>
+    <t>Hogy tevődik össze a nyelvizsga irásbeli része és hány pontot érnek?</t>
+  </si>
+  <si>
+    <t>Hol kell iratkozni a nyelvizsga harmadik részére?</t>
+  </si>
+  <si>
+    <t>Mikor van a záróvizsga időpontja a Fejlett mechatronikai rendszereknak?</t>
+  </si>
+  <si>
+    <t>Hányas teremben van a záróvizsga a növényorvos szaknak?</t>
+  </si>
+  <si>
+    <t>Mi az a disszertáció?</t>
+  </si>
+  <si>
+    <t>Hol található a mesterképzés ütemezés?</t>
+  </si>
+  <si>
+    <t>Miből áll a pedagogiai portfolió középiskolai szakasz?</t>
+  </si>
+  <si>
+    <t>Hány darab kérdésből áll a tájépitészet záróvizsga irásbeli része?</t>
+  </si>
+  <si>
+    <t>Hányas teremben lesz a számítástechnika záróvizsga?</t>
+  </si>
+  <si>
+    <t>Hányas termekben lesz a mechatronika szak záróvizsga?</t>
+  </si>
+  <si>
+    <t>Hol érhető el a közegészségügyi szolgáltatások és politikák szak záróvizsga tematikája?</t>
+  </si>
+  <si>
+    <t>Hogy számolják ki az informatika szak záróvizsga végső jegyét?</t>
+  </si>
+  <si>
+    <t>Mik az I. szintű pedagógiai modul kötelező tantárgyai, hány órából áll és hány kredtiből?</t>
+  </si>
+  <si>
+    <t>Hogy mondják románul a Tanárképző Intézetet?</t>
+  </si>
+  <si>
+    <t>Mennyit kell fizetni egy főnek az Apartmann (3 + 3 ágy)-ra?</t>
+  </si>
+  <si>
+    <t>Milyen papirok kellenek a bentlakás jelentkezéséshez?</t>
+  </si>
+  <si>
+    <t>Add meg a kari tdk honlapját!</t>
+  </si>
+  <si>
+    <t>Mi az újra felvett tantárgynak a befizetési dátuma?</t>
+  </si>
+  <si>
+    <t>Mi a 4500 RON I.félévi tandij mulasztása?</t>
+  </si>
+  <si>
+    <t>Hol találom a szoftverfejlesztés felvételi tematikáját?</t>
+  </si>
+  <si>
+    <t>Milyen elhelyeszkedő lehetőségek vannak a szoftverfejlesztés szakon?</t>
+  </si>
+  <si>
+    <t>Mennyi ideg tart az informatika képzés?</t>
+  </si>
+  <si>
+    <t>Hány tanszék van a marosvasarhelyi karon?</t>
+  </si>
+  <si>
+    <t>Mi a dékán neve a marosvasarhelyi karon?</t>
+  </si>
+  <si>
+    <t>Ki a kari erasmus bizottság elnöke?</t>
+  </si>
+  <si>
+    <t>Milyen linken találom az internship ajánlatokat?</t>
+  </si>
+  <si>
+    <t>Sorold fel a HÖK rendezvényeit!</t>
+  </si>
+  <si>
+    <t>embedding generálásai idő átlaga</t>
+  </si>
+  <si>
+    <t>sparse embedding generálási idő átlaga</t>
+  </si>
+  <si>
+    <t>kontextus összeállitási idő átlaga</t>
+  </si>
+  <si>
+    <t>LLM feldolgozási idő átlaga</t>
+  </si>
+  <si>
+    <t>teljes feldoldozási idő átlaga</t>
+  </si>
+  <si>
+    <t>szemantikus hasonlóság mérékének(BERTScore F1) átlaga</t>
+  </si>
+  <si>
+    <t>top_k darab számának átlaga</t>
+  </si>
+  <si>
     <t>Sorold fel a DAMERG kutatócsoport Kolozsvári tagjait?</t>
-  </si>
-  <si>
-    <t>Melyik linken talalálom a acfa kutatási tervét?</t>
-  </si>
-  <si>
-    <t>Sorold fel a matinfo docenseit!</t>
-  </si>
-  <si>
-    <t>Add meg a tantárgyi leirások linkjét!</t>
-  </si>
-  <si>
-    <t>Add meg a mechatronika 2025-ös I. éves tantervét!</t>
-  </si>
-  <si>
-    <t>Hol találom a növényorvos szak II.éves tantervét?</t>
-  </si>
-  <si>
-    <t>Hol érhetem el a távközlés tantárgyi adatlapját!</t>
-  </si>
-  <si>
-    <t>Add meg az órarendet!</t>
-  </si>
-  <si>
-    <t>Hogy hivják a jezsuita szerzetest?</t>
-  </si>
-  <si>
-    <t>Hogy hivják a családorvosokat?</t>
-  </si>
-  <si>
-    <t>Mi a telefonszáma dr. Finna Juditnak?</t>
-  </si>
-  <si>
-    <t>Mi az orvosi rendelő időpontjai?</t>
-  </si>
-  <si>
-    <t>Az oklevél átvételéhez mi szükséges?</t>
-  </si>
-  <si>
-    <t>Miből áll a portfólió nyilvános védése?</t>
-  </si>
-  <si>
-    <t>Miből áll a tanárképzés záróvizsga menete?</t>
-  </si>
-  <si>
-    <t>Hol találom a számítástechnika szak záróvizsga útmutatóját?</t>
-  </si>
-  <si>
-    <t>Hol talalálom a matematika-informatika tanszék útmutatójaát?</t>
-  </si>
-  <si>
-    <t>Hol találom a tájépitészeti szak tervlapját?</t>
-  </si>
-  <si>
-    <t>Melyik linken találom az alkalmazott nyelvészeti tanszék útmutatóját?</t>
-  </si>
-  <si>
-    <t>Hogy tevődik össze a nyelvizsga irásbeli része és hány pontot érnek?</t>
-  </si>
-  <si>
-    <t>Hol kell iratkozni a nyelvizsga harmadik részére?</t>
-  </si>
-  <si>
-    <t>Mikor van a záróvizsga időpontja a Fejlett mechatronikai rendszereknak?</t>
-  </si>
-  <si>
-    <t>Hányas teremben van a záróvizsga a növényorvos szaknak?</t>
-  </si>
-  <si>
-    <t>Mi az a disszertáció?</t>
-  </si>
-  <si>
-    <t>Hol található a mesterképzés ütemezés?</t>
-  </si>
-  <si>
-    <t>Miből áll a pedagogiai portfolió középiskolai szakasz?</t>
-  </si>
-  <si>
-    <t>Hány darab kérdésből áll a tájépitészet záróvizsga irásbeli része?</t>
-  </si>
-  <si>
-    <t>Hányas teremben lesz a számítástechnika záróvizsga?</t>
-  </si>
-  <si>
-    <t>Hányas termekben lesz a mechatronika szak záróvizsga?</t>
-  </si>
-  <si>
-    <t>Hol érhető el a közegészségügyi szolgáltatások és politikák szak záróvizsga tematikája?</t>
-  </si>
-  <si>
-    <t>Hogy számolják ki az informatika szak záróvizsga végső jegyét?</t>
-  </si>
-  <si>
-    <t>Mik az I. szintű pedagógiai modul kötelező tantárgyai, hány órából áll és hány kredtiből?</t>
-  </si>
-  <si>
-    <t>Hogy mondják románul a Tanárképző Intézetet?</t>
-  </si>
-  <si>
-    <t>Mennyit kell fizetni egy főnek az Apartmann (3 + 3 ágy)-ra?</t>
-  </si>
-  <si>
-    <t>Milyen papirok kellenek a bentlakás jelentkezéséshez?</t>
-  </si>
-  <si>
-    <t>Add meg a kari tdk honlapját!</t>
-  </si>
-  <si>
-    <t>Mi az újra felvett tantárgynak a befizetési dátuma?</t>
-  </si>
-  <si>
-    <t>Mi a 4500 RON I.félévi tandij mulasztása?</t>
-  </si>
-  <si>
-    <t>Hol találom a szoftverfejlesztés felvételi tematikáját?</t>
-  </si>
-  <si>
-    <t>Milyen elhelyeszkedő lehetőségek vannak a szoftverfejlesztés szakon?</t>
-  </si>
-  <si>
-    <t>Mennyi ideg tart az informatika képzés?</t>
-  </si>
-  <si>
-    <t>Hány tanszék van a marosvasarhelyi karon?</t>
-  </si>
-  <si>
-    <t>Mi a dékán neve a marosvasarhelyi karon?</t>
-  </si>
-  <si>
-    <t>Ki a kari erasmus bizottság elnöke?</t>
-  </si>
-  <si>
-    <t>Milyen linken találom az internship ajánlatokat?</t>
-  </si>
-  <si>
-    <t>Sorold fel a HÖK rendezvényeit!</t>
-  </si>
-  <si>
-    <t>embedding generálásai idő átlaga</t>
-  </si>
-  <si>
-    <t>sparse embedding generálási idő átlaga</t>
-  </si>
-  <si>
-    <t>kontextus összeállitási idő átlaga</t>
-  </si>
-  <si>
-    <t>LLM feldolgozási idő átlaga</t>
-  </si>
-  <si>
-    <t>teljes feldoldozási idő átlaga</t>
-  </si>
-  <si>
-    <t>szemantikus hasonlóság mérékének(BERTScore F1) átlaga</t>
-  </si>
-  <si>
-    <t>top_k darab számának átlaga</t>
   </si>
 </sst>
 </file>
@@ -277,7 +277,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -624,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="A1:A61 G1:G61"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,19 +660,19 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1.645</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="C2">
-        <v>1.4850000000000001</v>
+        <v>2.4420000000000002</v>
       </c>
       <c r="D2">
-        <v>0.60299999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="E2">
-        <v>1.385</v>
+        <v>1.5169999999999999</v>
       </c>
       <c r="F2">
-        <v>5.1180000000000003</v>
+        <v>5.1280000000000001</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -687,22 +686,22 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.41</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="C3">
-        <v>0.45900000000000002</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="D3">
-        <v>0.57499999999999996</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E3">
-        <v>1.4510000000000001</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="F3">
-        <v>2.8969999999999998</v>
+        <v>4.9660000000000002</v>
       </c>
       <c r="G3">
-        <v>0.92</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -713,19 +712,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.33600000000000002</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="C4">
-        <v>0.34699999999999998</v>
+        <v>2.302</v>
       </c>
       <c r="D4">
-        <v>0.61399999999999999</v>
+        <v>0.627</v>
       </c>
       <c r="E4">
-        <v>2.3479999999999999</v>
+        <v>2.0030000000000001</v>
       </c>
       <c r="F4">
-        <v>3.6459999999999999</v>
+        <v>5.32</v>
       </c>
       <c r="G4">
         <v>0.89</v>
@@ -739,22 +738,22 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.29799999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C5">
-        <v>0.41299999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D5">
-        <v>0.63800000000000001</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="E5">
-        <v>1.6930000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="F5">
-        <v>3.0430000000000001</v>
+        <v>4.7629999999999999</v>
       </c>
       <c r="G5">
-        <v>0.84699999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -765,19 +764,19 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.32300000000000001</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="C6">
-        <v>0.47399999999999998</v>
+        <v>2.452</v>
       </c>
       <c r="D6">
-        <v>0.55900000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="E6">
-        <v>1.2010000000000001</v>
+        <v>1.399</v>
       </c>
       <c r="F6">
-        <v>2.5569999999999999</v>
+        <v>4.7480000000000002</v>
       </c>
       <c r="G6">
         <v>0.875</v>
@@ -791,19 +790,19 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.378</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="C7">
-        <v>0.45900000000000002</v>
+        <v>2.4369999999999998</v>
       </c>
       <c r="D7">
-        <v>0.61099999999999999</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="E7">
-        <v>1.36</v>
+        <v>1.454</v>
       </c>
       <c r="F7">
-        <v>2.8079999999999998</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -817,22 +816,22 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.33400000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="C8">
-        <v>0.29799999999999999</v>
+        <v>2.3809999999999998</v>
       </c>
       <c r="D8">
-        <v>0.59799999999999998</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E8">
-        <v>1.823</v>
+        <v>1.6519999999999999</v>
       </c>
       <c r="F8">
-        <v>3.052</v>
+        <v>4.9450000000000003</v>
       </c>
       <c r="G8">
-        <v>0.878</v>
+        <v>0.877</v>
       </c>
       <c r="H8">
         <v>31</v>
@@ -843,22 +842,22 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.34599999999999997</v>
+        <v>0.371</v>
       </c>
       <c r="C9">
-        <v>0.34200000000000003</v>
+        <v>2.2909999999999999</v>
       </c>
       <c r="D9">
-        <v>0.60099999999999998</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="E9">
-        <v>1.5189999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="F9">
-        <v>2.8079999999999998</v>
+        <v>4.7519999999999998</v>
       </c>
       <c r="G9">
-        <v>0.90700000000000003</v>
+        <v>0.97</v>
       </c>
       <c r="H9">
         <v>37</v>
@@ -869,22 +868,22 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.34799999999999998</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C10">
-        <v>0.52400000000000002</v>
+        <v>2.3460000000000001</v>
       </c>
       <c r="D10">
-        <v>0.61199999999999999</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="E10">
-        <v>1.7889999999999999</v>
+        <v>1.6890000000000001</v>
       </c>
       <c r="F10">
-        <v>3.2730000000000001</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>0.91600000000000004</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="H10">
         <v>38</v>
@@ -895,22 +894,22 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>8.6479999999999997</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="C11">
-        <v>0.52100000000000002</v>
+        <v>2.4590000000000001</v>
       </c>
       <c r="D11">
-        <v>0.621</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="E11">
-        <v>1.9650000000000001</v>
+        <v>1.954</v>
       </c>
       <c r="F11">
-        <v>11.756</v>
+        <v>5.3620000000000001</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="H11">
         <v>33</v>
@@ -921,19 +920,19 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.32500000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="C12">
-        <v>0.52800000000000002</v>
+        <v>2.3410000000000002</v>
       </c>
       <c r="D12">
-        <v>0.60199999999999998</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="E12">
-        <v>1.4319999999999999</v>
+        <v>1.7769999999999999</v>
       </c>
       <c r="F12">
-        <v>2.8860000000000001</v>
+        <v>5.0529999999999999</v>
       </c>
       <c r="G12">
         <v>0.96099999999999997</v>
@@ -947,19 +946,19 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.46100000000000002</v>
+        <v>0.316</v>
       </c>
       <c r="C13">
-        <v>0.35199999999999998</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="D13">
-        <v>0.61899999999999999</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="E13">
-        <v>1.3180000000000001</v>
+        <v>1.407</v>
       </c>
       <c r="F13">
-        <v>2.75</v>
+        <v>4.7309999999999999</v>
       </c>
       <c r="G13">
         <v>0.84799999999999998</v>
@@ -973,19 +972,19 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.67900000000000005</v>
+        <v>0.374</v>
       </c>
       <c r="C14">
-        <v>0.46700000000000003</v>
+        <v>2.492</v>
       </c>
       <c r="D14">
-        <v>0.62</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E14">
-        <v>1.429</v>
+        <v>1.528</v>
       </c>
       <c r="F14">
-        <v>3.1949999999999998</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -999,19 +998,19 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.32</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="C15">
-        <v>0.39</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="D15">
-        <v>0.65200000000000002</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="E15">
-        <v>1.4319999999999999</v>
+        <v>1.83</v>
       </c>
       <c r="F15">
-        <v>2.7930000000000001</v>
+        <v>5.7519999999999998</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1022,25 +1021,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B16">
-        <v>0.42099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="C16">
-        <v>0.374</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="D16">
-        <v>0.624</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="E16">
-        <v>1.802</v>
+        <v>1.8819999999999999</v>
       </c>
       <c r="F16">
-        <v>3.2210000000000001</v>
+        <v>5.04</v>
       </c>
       <c r="G16">
-        <v>0.77300000000000002</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="H16">
         <v>34</v>
@@ -1048,25 +1047,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>0.45300000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="C17">
-        <v>0.41199999999999998</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="D17">
-        <v>0.628</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E17">
-        <v>1.764</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="F17">
-        <v>3.258</v>
+        <v>5.9109999999999996</v>
       </c>
       <c r="G17">
-        <v>0.95199999999999996</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="H17">
         <v>39</v>
@@ -1074,25 +1073,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>0.32200000000000001</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="C18">
-        <v>0.39</v>
+        <v>2.1880000000000002</v>
       </c>
       <c r="D18">
-        <v>0.625</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="E18">
-        <v>1.6870000000000001</v>
+        <v>1.661</v>
       </c>
       <c r="F18">
-        <v>3.0230000000000001</v>
+        <v>5.0490000000000004</v>
       </c>
       <c r="G18">
-        <v>0.872</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="H18">
         <v>32</v>
@@ -1100,25 +1099,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.34399999999999997</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="C19">
-        <v>0.35599999999999998</v>
+        <v>2.4169999999999998</v>
       </c>
       <c r="D19">
-        <v>0.63200000000000001</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E19">
-        <v>1.165</v>
+        <v>1.4370000000000001</v>
       </c>
       <c r="F19">
-        <v>2.4980000000000002</v>
+        <v>4.7919999999999998</v>
       </c>
       <c r="G19">
-        <v>0.90300000000000002</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>30</v>
@@ -1126,25 +1125,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.32300000000000001</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="C20">
-        <v>0.38600000000000001</v>
+        <v>2.444</v>
       </c>
       <c r="D20">
-        <v>0.624</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="E20">
-        <v>1.4890000000000001</v>
+        <v>1.3879999999999999</v>
       </c>
       <c r="F20">
-        <v>2.823</v>
+        <v>4.7510000000000003</v>
       </c>
       <c r="G20">
-        <v>0.879</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>34</v>
@@ -1152,25 +1151,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.33300000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C21">
-        <v>0.38700000000000001</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="D21">
-        <v>0.58099999999999996</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="E21">
-        <v>1.2889999999999999</v>
+        <v>1.532</v>
       </c>
       <c r="F21">
-        <v>2.5910000000000002</v>
+        <v>4.7380000000000004</v>
       </c>
       <c r="G21">
-        <v>0.89300000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="H21">
         <v>34</v>
@@ -1178,25 +1177,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.32700000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="C22">
-        <v>0.375</v>
+        <v>2.6960000000000002</v>
       </c>
       <c r="D22">
-        <v>0.65200000000000002</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="E22">
-        <v>1.5109999999999999</v>
+        <v>2.355</v>
       </c>
       <c r="F22">
-        <v>2.8660000000000001</v>
+        <v>6.0650000000000004</v>
       </c>
       <c r="G22">
-        <v>0.89700000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="H22">
         <v>36</v>
@@ -1204,25 +1203,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.36699999999999999</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="C23">
-        <v>0.31900000000000001</v>
+        <v>2.246</v>
       </c>
       <c r="D23">
-        <v>0.61</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="E23">
-        <v>1.673</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="F23">
-        <v>2.97</v>
+        <v>4.7869999999999999</v>
       </c>
       <c r="G23">
-        <v>0.66600000000000004</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="H23">
         <v>39</v>
@@ -1230,25 +1229,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.35199999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="C24">
-        <v>0.48199999999999998</v>
+        <v>2.528</v>
       </c>
       <c r="D24">
-        <v>0.67</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E24">
-        <v>1.627</v>
+        <v>1.8120000000000001</v>
       </c>
       <c r="F24">
-        <v>3.1309999999999998</v>
+        <v>5.3520000000000003</v>
       </c>
       <c r="G24">
-        <v>0.72699999999999998</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="H24">
         <v>37</v>
@@ -1256,25 +1255,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.40600000000000003</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="C25">
-        <v>0.33400000000000002</v>
+        <v>2.2519999999999998</v>
       </c>
       <c r="D25">
-        <v>0.56499999999999995</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="E25">
-        <v>1.7989999999999999</v>
+        <v>1.885</v>
       </c>
       <c r="F25">
-        <v>3.1030000000000002</v>
+        <v>6.7039999999999997</v>
       </c>
       <c r="G25">
-        <v>0.71399999999999997</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="H25">
         <v>39</v>
@@ -1282,25 +1281,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.318</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="C26">
-        <v>0.40899999999999997</v>
+        <v>2.3460000000000001</v>
       </c>
       <c r="D26">
-        <v>0.63600000000000001</v>
+        <v>0.626</v>
       </c>
       <c r="E26">
-        <v>1.5289999999999999</v>
+        <v>1.512</v>
       </c>
       <c r="F26">
-        <v>2.8940000000000001</v>
+        <v>5.1180000000000003</v>
       </c>
       <c r="G26">
-        <v>0.77600000000000002</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="H26">
         <v>36</v>
@@ -1308,25 +1307,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.33900000000000002</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="C27">
-        <v>0.33100000000000002</v>
+        <v>2.5059999999999998</v>
       </c>
       <c r="D27">
-        <v>0.628</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="E27">
-        <v>1.145</v>
+        <v>1.302</v>
       </c>
       <c r="F27">
-        <v>2.444</v>
+        <v>4.7830000000000004</v>
       </c>
       <c r="G27">
-        <v>0.89100000000000001</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="H27">
         <v>36</v>
@@ -1334,22 +1333,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.33600000000000002</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="C28">
-        <v>0.34699999999999998</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="D28">
-        <v>0.60699999999999998</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="E28">
-        <v>2.09</v>
+        <v>2.4159999999999999</v>
       </c>
       <c r="F28">
-        <v>3.379</v>
+        <v>5.9109999999999996</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1360,48 +1359,48 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.32400000000000001</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="C29">
-        <v>0.34300000000000003</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="D29">
-        <v>0.61899999999999999</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="E29">
-        <v>1.3049999999999999</v>
+        <v>1.498</v>
       </c>
       <c r="F29">
-        <v>2.5910000000000002</v>
+        <v>4.944</v>
       </c>
       <c r="G29">
         <v>0.90300000000000002</v>
       </c>
       <c r="H29">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.40699999999999997</v>
+        <v>0.317</v>
       </c>
       <c r="C30">
-        <v>0.36599999999999999</v>
+        <v>2.395</v>
       </c>
       <c r="D30">
-        <v>0.57899999999999996</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="E30">
-        <v>1.329</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="F30">
-        <v>2.6819999999999999</v>
+        <v>5.3280000000000003</v>
       </c>
       <c r="G30">
         <v>0.94599999999999995</v>
@@ -1412,25 +1411,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.36899999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="C31">
-        <v>0.35299999999999998</v>
+        <v>2.411</v>
       </c>
       <c r="D31">
-        <v>0.63200000000000001</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="E31">
-        <v>1.8979999999999999</v>
+        <v>1.4179999999999999</v>
       </c>
       <c r="F31">
-        <v>3.2530000000000001</v>
+        <v>4.74</v>
       </c>
       <c r="G31">
-        <v>0.747</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="H31">
         <v>34</v>
@@ -1438,25 +1437,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.39600000000000002</v>
+        <v>0.315</v>
       </c>
       <c r="C32">
-        <v>0.35699999999999998</v>
+        <v>2.3570000000000002</v>
       </c>
       <c r="D32">
-        <v>0.58399999999999996</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E32">
-        <v>3.173</v>
+        <v>1.552</v>
       </c>
       <c r="F32">
-        <v>4.5110000000000001</v>
+        <v>4.8220000000000001</v>
       </c>
       <c r="G32">
-        <v>0.64</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="H32">
         <v>33</v>
@@ -1464,25 +1463,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>1.746</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="C33">
-        <v>0.46700000000000003</v>
+        <v>2.5209999999999999</v>
       </c>
       <c r="D33">
-        <v>0.60299999999999998</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="E33">
-        <v>1.2210000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="F33">
-        <v>4.0380000000000003</v>
+        <v>4.9390000000000001</v>
       </c>
       <c r="G33">
-        <v>0.91900000000000004</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="H33">
         <v>37</v>
@@ -1490,25 +1489,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.53500000000000003</v>
+        <v>0.433</v>
       </c>
       <c r="C34">
-        <v>0.34599999999999997</v>
+        <v>2.4630000000000001</v>
       </c>
       <c r="D34">
-        <v>0.63300000000000001</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="E34">
-        <v>1.5149999999999999</v>
+        <v>1.51</v>
       </c>
       <c r="F34">
-        <v>3.0289999999999999</v>
+        <v>5.0090000000000003</v>
       </c>
       <c r="G34">
-        <v>0.77200000000000002</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="H34">
         <v>36</v>
@@ -1516,25 +1515,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.29099999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="C35">
-        <v>0.43099999999999999</v>
+        <v>2.3759999999999999</v>
       </c>
       <c r="D35">
-        <v>0.55900000000000005</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="E35">
-        <v>1.5109999999999999</v>
+        <v>1.4339999999999999</v>
       </c>
       <c r="F35">
-        <v>2.7919999999999998</v>
+        <v>4.7539999999999996</v>
       </c>
       <c r="G35">
-        <v>0.82699999999999996</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="H35">
         <v>27</v>
@@ -1542,22 +1541,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.33100000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C36">
-        <v>0.373</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="D36">
-        <v>0.63700000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="E36">
-        <v>1.365</v>
+        <v>1.486</v>
       </c>
       <c r="F36">
-        <v>2.706</v>
+        <v>4.8490000000000002</v>
       </c>
       <c r="G36">
         <v>0.80700000000000005</v>
@@ -1568,22 +1567,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>0.47099999999999997</v>
+        <v>0.315</v>
       </c>
       <c r="C37">
-        <v>0.44500000000000001</v>
+        <v>2.5139999999999998</v>
       </c>
       <c r="D37">
-        <v>0.625</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E37">
-        <v>1.37</v>
+        <v>1.5649999999999999</v>
       </c>
       <c r="F37">
-        <v>2.9119999999999999</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="G37">
         <v>0.68899999999999995</v>
@@ -1594,25 +1593,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.28499999999999998</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="C38">
-        <v>0.435</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="D38">
-        <v>0.65700000000000003</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E38">
-        <v>1.3149999999999999</v>
+        <v>1.4470000000000001</v>
       </c>
       <c r="F38">
-        <v>2.6930000000000001</v>
+        <v>4.9249999999999998</v>
       </c>
       <c r="G38">
-        <v>0.67300000000000004</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="H38">
         <v>34</v>
@@ -1620,51 +1619,51 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.313</v>
+        <v>0.309</v>
       </c>
       <c r="C39">
-        <v>0.36299999999999999</v>
+        <v>2.8929999999999998</v>
       </c>
       <c r="D39">
-        <v>0.59099999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E39">
-        <v>1.6559999999999999</v>
+        <v>1.772</v>
       </c>
       <c r="F39">
-        <v>2.9239999999999999</v>
+        <v>5.6070000000000002</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="H39">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.376</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C40">
-        <v>0.38</v>
+        <v>2.2730000000000001</v>
       </c>
       <c r="D40">
-        <v>0.57399999999999995</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="E40">
-        <v>1.53</v>
+        <v>1.446</v>
       </c>
       <c r="F40">
-        <v>2.8610000000000002</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="G40">
-        <v>0.89300000000000002</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>33</v>
@@ -1672,25 +1671,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.33900000000000002</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="C41">
-        <v>0.35299999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="D41">
-        <v>0.61599999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="E41">
-        <v>2.9009999999999998</v>
+        <v>2.2530000000000001</v>
       </c>
       <c r="F41">
-        <v>4.2130000000000001</v>
+        <v>5.5339999999999998</v>
       </c>
       <c r="G41">
-        <v>0.78300000000000003</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H41">
         <v>28</v>
@@ -1698,22 +1697,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.317</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="C42">
-        <v>0.42199999999999999</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="D42">
-        <v>0.54700000000000004</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="E42">
-        <v>1.173</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="F42">
-        <v>2.4580000000000002</v>
+        <v>7.7409999999999997</v>
       </c>
       <c r="G42">
         <v>0.56000000000000005</v>
@@ -1724,22 +1723,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.55500000000000005</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="C43">
-        <v>0.48199999999999998</v>
+        <v>2.383</v>
       </c>
       <c r="D43">
-        <v>0.622</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="E43">
-        <v>1.135</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="F43">
-        <v>2.7949999999999999</v>
+        <v>4.4219999999999997</v>
       </c>
       <c r="G43">
         <v>0.68600000000000005</v>
@@ -1750,25 +1749,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.313</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="C44">
-        <v>0.45300000000000001</v>
+        <v>2.4340000000000002</v>
       </c>
       <c r="D44">
-        <v>0.57599999999999996</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="E44">
-        <v>1.0760000000000001</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="F44">
-        <v>2.419</v>
+        <v>4.7050000000000001</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="H44">
         <v>28</v>
@@ -1776,25 +1775,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>0.30299999999999999</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="C45">
-        <v>0.438</v>
+        <v>2.5470000000000002</v>
       </c>
       <c r="D45">
-        <v>0.623</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="E45">
-        <v>1.502</v>
+        <v>1.607</v>
       </c>
       <c r="F45">
-        <v>2.8660000000000001</v>
+        <v>5.0510000000000002</v>
       </c>
       <c r="G45">
-        <v>0.89200000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="H45">
         <v>26</v>
@@ -1802,22 +1801,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.379</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="C46">
-        <v>0.36499999999999999</v>
+        <v>2.4630000000000001</v>
       </c>
       <c r="D46">
-        <v>0.627</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="E46">
-        <v>1.28</v>
+        <v>1.373</v>
       </c>
       <c r="F46">
-        <v>2.6509999999999998</v>
+        <v>4.9139999999999997</v>
       </c>
       <c r="G46">
         <v>0.93100000000000005</v>
@@ -1828,25 +1827,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.313</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C47">
-        <v>0.52900000000000003</v>
+        <v>2.4790000000000001</v>
       </c>
       <c r="D47">
-        <v>0.60899999999999999</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="E47">
-        <v>2.024</v>
+        <v>2.121</v>
       </c>
       <c r="F47">
-        <v>3.476</v>
+        <v>5.468</v>
       </c>
       <c r="G47">
-        <v>0.97599999999999998</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="H47">
         <v>28</v>
@@ -1854,22 +1853,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.30599999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="C48">
-        <v>0.36299999999999999</v>
+        <v>2.851</v>
       </c>
       <c r="D48">
-        <v>0.61799999999999999</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="E48">
-        <v>1.7410000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="F48">
-        <v>3.028</v>
+        <v>5.5960000000000001</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1880,25 +1879,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.35499999999999998</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C49">
-        <v>0.39700000000000002</v>
+        <v>2.4430000000000001</v>
       </c>
       <c r="D49">
-        <v>0.61899999999999999</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="E49">
-        <v>1.3420000000000001</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F49">
-        <v>2.714</v>
+        <v>4.4779999999999998</v>
       </c>
       <c r="G49">
-        <v>0.67700000000000005</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="H49">
         <v>24</v>
@@ -1906,25 +1905,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.34300000000000003</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="C50">
-        <v>0.49299999999999999</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="D50">
-        <v>0.57899999999999996</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="E50">
-        <v>4.327</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="F50">
-        <v>5.742</v>
+        <v>6.5540000000000003</v>
       </c>
       <c r="G50">
-        <v>0.90600000000000003</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="H50">
         <v>33</v>
@@ -1932,25 +1931,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.45600000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C51">
-        <v>0.379</v>
+        <v>3.3340000000000001</v>
       </c>
       <c r="D51">
-        <v>0.57199999999999995</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E51">
-        <v>1.4179999999999999</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="F51">
-        <v>2.8250000000000002</v>
+        <v>5.7409999999999997</v>
       </c>
       <c r="G51">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="H51">
         <v>29</v>
@@ -1958,25 +1957,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>0.27900000000000003</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="C52">
-        <v>0.39300000000000002</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="D52">
-        <v>0.58899999999999997</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="E52">
-        <v>1.3540000000000001</v>
+        <v>1.47</v>
       </c>
       <c r="F52">
-        <v>2.6150000000000002</v>
+        <v>5.0309999999999997</v>
       </c>
       <c r="G52">
-        <v>0.97099999999999997</v>
+        <v>0.77</v>
       </c>
       <c r="H52">
         <v>26</v>
@@ -1984,22 +1983,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.28000000000000003</v>
+        <v>0.435</v>
       </c>
       <c r="C53">
-        <v>0.376</v>
+        <v>2.3220000000000001</v>
       </c>
       <c r="D53">
-        <v>0.63400000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="E53">
-        <v>1.194</v>
+        <v>1.333</v>
       </c>
       <c r="F53">
-        <v>2.4849999999999999</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2010,25 +2009,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.32100000000000001</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="C54">
-        <v>0.35799999999999998</v>
+        <v>2.3180000000000001</v>
       </c>
       <c r="D54">
-        <v>0.64</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E54">
-        <v>2.0209999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="F54">
-        <v>3.34</v>
+        <v>5.008</v>
       </c>
       <c r="G54">
-        <v>0.876</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="H54">
         <v>36</v>
@@ -2036,25 +2035,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.70399999999999996</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C55">
-        <v>0.38100000000000001</v>
+        <v>2.2469999999999999</v>
       </c>
       <c r="D55">
-        <v>0.55700000000000005</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="E55">
-        <v>1.3540000000000001</v>
+        <v>1.3069999999999999</v>
       </c>
       <c r="F55">
-        <v>2.996</v>
+        <v>4.4470000000000001</v>
       </c>
       <c r="G55">
-        <v>0.873</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="H55">
         <v>33</v>
@@ -2062,22 +2061,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.30199999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C56">
-        <v>0.34300000000000003</v>
+        <v>2.3719999999999999</v>
       </c>
       <c r="D56">
-        <v>0.64100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="E56">
-        <v>1.381</v>
+        <v>1.51</v>
       </c>
       <c r="F56">
-        <v>2.6669999999999998</v>
+        <v>4.7930000000000001</v>
       </c>
       <c r="G56">
         <v>0.71</v>
@@ -2088,51 +2087,51 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.34100000000000003</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="C57">
-        <v>0.35699999999999998</v>
+        <v>2.3719999999999999</v>
       </c>
       <c r="D57">
-        <v>0.64900000000000002</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="E57">
-        <v>1.306</v>
+        <v>1.329</v>
       </c>
       <c r="F57">
-        <v>2.653</v>
+        <v>4.6829999999999998</v>
       </c>
       <c r="G57">
         <v>0.48299999999999998</v>
       </c>
       <c r="H57">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.38500000000000001</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="C58">
-        <v>0.38300000000000001</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D58">
-        <v>0.63700000000000001</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E58">
-        <v>1.9339999999999999</v>
+        <v>3.117</v>
       </c>
       <c r="F58">
-        <v>3.3380000000000001</v>
+        <v>6.5789999999999997</v>
       </c>
       <c r="G58">
-        <v>0.66800000000000004</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="H58">
         <v>30</v>
@@ -2140,25 +2139,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.36699999999999999</v>
+        <v>0.309</v>
       </c>
       <c r="C59">
-        <v>0.36</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="D59">
-        <v>0.621</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E59">
-        <v>1.728</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="F59">
-        <v>3.0760000000000001</v>
+        <v>5.2880000000000003</v>
       </c>
       <c r="G59">
-        <v>0.76300000000000001</v>
+        <v>0.877</v>
       </c>
       <c r="H59">
         <v>32</v>
@@ -2166,25 +2165,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.54700000000000004</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C60">
-        <v>0.48099999999999998</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="D60">
-        <v>0.61199999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="E60">
-        <v>1.7949999999999999</v>
+        <v>1.786</v>
       </c>
       <c r="F60">
-        <v>3.4359999999999999</v>
+        <v>5.1829999999999998</v>
       </c>
       <c r="G60">
-        <v>0.92900000000000005</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>28</v>
@@ -2192,25 +2191,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.375</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="C61">
-        <v>0.32</v>
+        <v>2.3010000000000002</v>
       </c>
       <c r="D61">
-        <v>0.6</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="E61">
-        <v>1.853</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="F61">
-        <v>3.149</v>
+        <v>5.0890000000000004</v>
       </c>
       <c r="G61">
-        <v>0.78700000000000003</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H61">
         <v>24</v>
@@ -2222,76 +2221,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04514B0-C935-4BDE-A868-9DCABC8A415E}">
-  <dimension ref="B5:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC1D509-0F81-4AA7-B29E-9888AB92EB75}">
+  <dimension ref="B5:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <f>ROUND(AVERAGE(Sheet1!B2:B61),2)</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="H5">
-        <f>ROUND(AVERAGE(Sheet1!B2:B61),2)</f>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="G7">
+        <f>ROUND(AVERAGE(Sheet1!C2:C61),2)</f>
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="H7">
-        <f>ROUND(AVERAGE(Sheet1!C2:C61),2)</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9">
+      <c r="G9">
         <f>ROUND(AVERAGE(Sheet1!D2:D61),2)</f>
         <v>0.61</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <f>ROUND(AVERAGE(Sheet1!E2:E61),2)</f>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="H11">
-        <f>ROUND(AVERAGE(Sheet1!E2:E61),2)</f>
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="G13">
+        <f>ROUND(AVERAGE(Sheet1!F2:F61),2)</f>
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="H13">
-        <f>ROUND(AVERAGE(Sheet1!F2:F61),2)</f>
-        <v>3.21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <f>ROUND(AVERAGE(Sheet1!G2:G61),2)</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17">
-        <f>AVERAGE(Sheet1!H2:H61)</f>
-        <v>31.15</v>
+        <v>73</v>
+      </c>
+      <c r="G17">
+        <f>ROUND(AVERAGE(Sheet1!H2:H61),2)</f>
+        <v>31.2</v>
       </c>
     </row>
   </sheetData>
